--- a/aug_pc_result/2026_Feb_12_20_14_09_d_separation_spearman_pc_gt_graph_AdaSyn_20_640076/aug_pc_raw_eval_res.xlsx
+++ b/aug_pc_result/2026_Feb_12_20_14_09_d_separation_spearman_pc_gt_graph_AdaSyn_20_640076/aug_pc_raw_eval_res.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\2026_Feb_12_20_14_09_d_separation_spearman_pc_gt_graph_AdaSyn_20_640076\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80849FB3-BC47-415F-B3F3-9A14AC1E0D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D264BB12-F558-4B9D-96E3-EE6C6BE68C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$513</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -511,10 +514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C475" workbookViewId="0">
-      <selection activeCell="K491" sqref="K491"/>
+    <sheetView tabSelected="1" topLeftCell="C347" workbookViewId="0">
+      <selection activeCell="P360" sqref="P360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -11235,7 +11239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -11318,7 +11322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -11401,7 +11405,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -11484,7 +11488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -11567,7 +11571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -11650,7 +11654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>30</v>
       </c>
@@ -11733,7 +11737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -11816,7 +11820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>30</v>
       </c>
@@ -11899,7 +11903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>30</v>
       </c>
@@ -11982,7 +11986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>30</v>
       </c>
@@ -12065,7 +12069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -12148,7 +12152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>30</v>
       </c>
@@ -12231,7 +12235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>30</v>
       </c>
@@ -12314,7 +12318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -12397,7 +12401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -12480,7 +12484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>30</v>
       </c>
@@ -12563,7 +12567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -12646,7 +12650,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>30</v>
       </c>
@@ -12729,7 +12733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>30</v>
       </c>
@@ -12812,7 +12816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -12895,7 +12899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -12978,7 +12982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>30</v>
       </c>
@@ -13061,7 +13065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>30</v>
       </c>
@@ -13144,7 +13148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>30</v>
       </c>
@@ -13227,7 +13231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>30</v>
       </c>
@@ -13310,7 +13314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>30</v>
       </c>
@@ -13393,7 +13397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>30</v>
       </c>
@@ -13476,7 +13480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -13559,7 +13563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>30</v>
       </c>
@@ -13642,7 +13646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>30</v>
       </c>
@@ -13725,7 +13729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>30</v>
       </c>
@@ -13808,7 +13812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>30</v>
       </c>
@@ -13891,7 +13895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -13974,7 +13978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>30</v>
       </c>
@@ -14057,7 +14061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>30</v>
       </c>
@@ -14140,7 +14144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>30</v>
       </c>
@@ -14223,7 +14227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>30</v>
       </c>
@@ -14306,7 +14310,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>30</v>
       </c>
@@ -14389,7 +14393,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>30</v>
       </c>
@@ -14472,7 +14476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>30</v>
       </c>
@@ -14555,7 +14559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -14638,7 +14642,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>30</v>
       </c>
@@ -14721,7 +14725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>30</v>
       </c>
@@ -14804,7 +14808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>30</v>
       </c>
@@ -14887,7 +14891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>30</v>
       </c>
@@ -14970,7 +14974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>30</v>
       </c>
@@ -15053,7 +15057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>30</v>
       </c>
@@ -15136,7 +15140,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>30</v>
       </c>
@@ -15219,7 +15223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>30</v>
       </c>
@@ -15302,7 +15306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>30</v>
       </c>
@@ -15385,7 +15389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -15468,7 +15472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>30</v>
       </c>
@@ -15551,7 +15555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>30</v>
       </c>
@@ -15634,7 +15638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -15717,7 +15721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>30</v>
       </c>
@@ -15800,7 +15804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>30</v>
       </c>
@@ -15883,7 +15887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>30</v>
       </c>
@@ -15966,7 +15970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>30</v>
       </c>
@@ -16049,7 +16053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>30</v>
       </c>
@@ -16132,7 +16136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>30</v>
       </c>
@@ -16215,7 +16219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>30</v>
       </c>
@@ -16298,7 +16302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>30</v>
       </c>
@@ -16381,7 +16385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>30</v>
       </c>
@@ -16464,7 +16468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>30</v>
       </c>
@@ -16547,7 +16551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>30</v>
       </c>
@@ -16630,7 +16634,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>30</v>
       </c>
@@ -16713,7 +16717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>30</v>
       </c>
@@ -16796,7 +16800,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>30</v>
       </c>
@@ -16879,7 +16883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>30</v>
       </c>
@@ -16962,7 +16966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -17045,7 +17049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>30</v>
       </c>
@@ -17128,7 +17132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>30</v>
       </c>
@@ -17211,7 +17215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>30</v>
       </c>
@@ -17294,7 +17298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>30</v>
       </c>
@@ -17377,7 +17381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>30</v>
       </c>
@@ -17460,7 +17464,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>30</v>
       </c>
@@ -17543,7 +17547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>30</v>
       </c>
@@ -17626,7 +17630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>30</v>
       </c>
@@ -17709,7 +17713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>30</v>
       </c>
@@ -17792,7 +17796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>30</v>
       </c>
@@ -17875,7 +17879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>30</v>
       </c>
@@ -17958,7 +17962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>30</v>
       </c>
@@ -18041,7 +18045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>30</v>
       </c>
@@ -18124,7 +18128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>30</v>
       </c>
@@ -18207,7 +18211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>30</v>
       </c>
@@ -18290,7 +18294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>30</v>
       </c>
@@ -18373,7 +18377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>30</v>
       </c>
@@ -18456,7 +18460,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>30</v>
       </c>
@@ -18539,7 +18543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>30</v>
       </c>
@@ -18622,7 +18626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>30</v>
       </c>
@@ -18705,7 +18709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>30</v>
       </c>
@@ -18788,7 +18792,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>30</v>
       </c>
@@ -18871,7 +18875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>30</v>
       </c>
@@ -18954,7 +18958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>30</v>
       </c>
@@ -19037,7 +19041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>30</v>
       </c>
@@ -19120,7 +19124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>30</v>
       </c>
@@ -19203,7 +19207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>30</v>
       </c>
@@ -19286,7 +19290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>30</v>
       </c>
@@ -19369,7 +19373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>30</v>
       </c>
@@ -19452,7 +19456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>30</v>
       </c>
@@ -19535,7 +19539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>30</v>
       </c>
@@ -19618,7 +19622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>30</v>
       </c>
@@ -19701,7 +19705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>30</v>
       </c>
@@ -19784,7 +19788,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>30</v>
       </c>
@@ -19867,7 +19871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>30</v>
       </c>
@@ -19950,7 +19954,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>30</v>
       </c>
@@ -20033,7 +20037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -20116,7 +20120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>30</v>
       </c>
@@ -20199,7 +20203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>30</v>
       </c>
@@ -20282,7 +20286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>30</v>
       </c>
@@ -20365,7 +20369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>30</v>
       </c>
@@ -20448,7 +20452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>30</v>
       </c>
@@ -20531,7 +20535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>30</v>
       </c>
@@ -20614,7 +20618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>30</v>
       </c>
@@ -20697,7 +20701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>30</v>
       </c>
@@ -20780,7 +20784,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>30</v>
       </c>
@@ -20863,7 +20867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>30</v>
       </c>
@@ -20946,7 +20950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>30</v>
       </c>
@@ -21029,7 +21033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>30</v>
       </c>
@@ -21112,7 +21116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>30</v>
       </c>
@@ -21195,7 +21199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -21278,7 +21282,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>30</v>
       </c>
@@ -21361,7 +21365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>30</v>
       </c>
@@ -21444,7 +21448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>30</v>
       </c>
@@ -21527,7 +21531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>30</v>
       </c>
@@ -21610,7 +21614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>30</v>
       </c>
@@ -21693,7 +21697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>30</v>
       </c>
@@ -21776,7 +21780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>30</v>
       </c>
@@ -32483,7 +32487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="386" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>39</v>
       </c>
@@ -32566,7 +32570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="387" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>39</v>
       </c>
@@ -32649,7 +32653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="388" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>39</v>
       </c>
@@ -32732,7 +32736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="389" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>39</v>
       </c>
@@ -32815,7 +32819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="390" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>39</v>
       </c>
@@ -32898,7 +32902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="391" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>39</v>
       </c>
@@ -32981,7 +32985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="392" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>39</v>
       </c>
@@ -33064,7 +33068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="393" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>39</v>
       </c>
@@ -33147,7 +33151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="394" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>39</v>
       </c>
@@ -33230,7 +33234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="395" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>39</v>
       </c>
@@ -33313,7 +33317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="396" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>39</v>
       </c>
@@ -33396,7 +33400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="397" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>39</v>
       </c>
@@ -33479,7 +33483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="398" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>39</v>
       </c>
@@ -33562,7 +33566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="399" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>39</v>
       </c>
@@ -33645,7 +33649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="400" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>39</v>
       </c>
@@ -33728,7 +33732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="401" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>39</v>
       </c>
@@ -33811,7 +33815,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="402" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>39</v>
       </c>
@@ -33894,7 +33898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="403" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>39</v>
       </c>
@@ -33977,7 +33981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="404" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>39</v>
       </c>
@@ -34060,7 +34064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="405" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>39</v>
       </c>
@@ -34143,7 +34147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="406" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>39</v>
       </c>
@@ -34226,7 +34230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="407" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>39</v>
       </c>
@@ -34309,7 +34313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="408" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>39</v>
       </c>
@@ -34392,7 +34396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="409" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>39</v>
       </c>
@@ -34475,7 +34479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="410" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>39</v>
       </c>
@@ -34558,7 +34562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="411" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>39</v>
       </c>
@@ -34641,7 +34645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="412" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>39</v>
       </c>
@@ -34724,7 +34728,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="413" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>39</v>
       </c>
@@ -34807,7 +34811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="414" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>39</v>
       </c>
@@ -34890,7 +34894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="415" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>39</v>
       </c>
@@ -34973,7 +34977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="416" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>39</v>
       </c>
@@ -35056,7 +35060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="417" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>39</v>
       </c>
@@ -35139,7 +35143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="418" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>39</v>
       </c>
@@ -35222,7 +35226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>39</v>
       </c>
@@ -35305,7 +35309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>39</v>
       </c>
@@ -35388,7 +35392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="421" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>39</v>
       </c>
@@ -35471,7 +35475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="422" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>39</v>
       </c>
@@ -35554,7 +35558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="423" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>39</v>
       </c>
@@ -35637,7 +35641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>39</v>
       </c>
@@ -35720,7 +35724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="425" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>39</v>
       </c>
@@ -35803,7 +35807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>39</v>
       </c>
@@ -35886,7 +35890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="427" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>39</v>
       </c>
@@ -35969,7 +35973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="428" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>39</v>
       </c>
@@ -36052,7 +36056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="429" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>39</v>
       </c>
@@ -36135,7 +36139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>39</v>
       </c>
@@ -36218,7 +36222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="431" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>39</v>
       </c>
@@ -36301,7 +36305,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>39</v>
       </c>
@@ -36384,7 +36388,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="433" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>39</v>
       </c>
@@ -36467,7 +36471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="434" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>39</v>
       </c>
@@ -36550,7 +36554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="435" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>39</v>
       </c>
@@ -36633,7 +36637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="436" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>39</v>
       </c>
@@ -36716,7 +36720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="437" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>39</v>
       </c>
@@ -36799,7 +36803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="438" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>39</v>
       </c>
@@ -36882,7 +36886,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="439" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>39</v>
       </c>
@@ -36965,7 +36969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="440" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>39</v>
       </c>
@@ -37048,7 +37052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="441" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>39</v>
       </c>
@@ -37131,7 +37135,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="442" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>39</v>
       </c>
@@ -37214,7 +37218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="443" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>39</v>
       </c>
@@ -37297,7 +37301,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="444" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>39</v>
       </c>
@@ -37380,7 +37384,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="445" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>39</v>
       </c>
@@ -37463,7 +37467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="446" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>39</v>
       </c>
@@ -37546,7 +37550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="447" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>39</v>
       </c>
@@ -37629,7 +37633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="448" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>39</v>
       </c>
@@ -37712,7 +37716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="449" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>39</v>
       </c>
@@ -37795,7 +37799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="450" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>39</v>
       </c>
@@ -37878,7 +37882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="451" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>39</v>
       </c>
@@ -37961,7 +37965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="452" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>39</v>
       </c>
@@ -38044,7 +38048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="453" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>39</v>
       </c>
@@ -38127,7 +38131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="454" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>39</v>
       </c>
@@ -38210,7 +38214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="455" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>39</v>
       </c>
@@ -38293,7 +38297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="456" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>39</v>
       </c>
@@ -38376,7 +38380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="457" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>39</v>
       </c>
@@ -38459,7 +38463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="458" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>39</v>
       </c>
@@ -38542,7 +38546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="459" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>39</v>
       </c>
@@ -38625,7 +38629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="460" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>39</v>
       </c>
@@ -38708,7 +38712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="461" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>39</v>
       </c>
@@ -38791,7 +38795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="462" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>39</v>
       </c>
@@ -38874,7 +38878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="463" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>39</v>
       </c>
@@ -38957,7 +38961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="464" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>39</v>
       </c>
@@ -39040,7 +39044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="465" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>39</v>
       </c>
@@ -39123,7 +39127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="466" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>39</v>
       </c>
@@ -39206,7 +39210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="467" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>39</v>
       </c>
@@ -39289,7 +39293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="468" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>39</v>
       </c>
@@ -39372,7 +39376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="469" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>39</v>
       </c>
@@ -39455,7 +39459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="470" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>39</v>
       </c>
@@ -39538,7 +39542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="471" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>39</v>
       </c>
@@ -39621,7 +39625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="472" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>39</v>
       </c>
@@ -39704,7 +39708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="473" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>39</v>
       </c>
@@ -39787,7 +39791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="474" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>39</v>
       </c>
@@ -39870,7 +39874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="475" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>39</v>
       </c>
@@ -39953,7 +39957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="476" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>39</v>
       </c>
@@ -40036,7 +40040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="477" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>39</v>
       </c>
@@ -40119,7 +40123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="478" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>39</v>
       </c>
@@ -40202,7 +40206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="479" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>39</v>
       </c>
@@ -40285,7 +40289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="480" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>39</v>
       </c>
@@ -40368,7 +40372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="481" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>39</v>
       </c>
@@ -40451,7 +40455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="482" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>39</v>
       </c>
@@ -40534,7 +40538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="483" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>39</v>
       </c>
@@ -40617,7 +40621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="484" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>39</v>
       </c>
@@ -40700,7 +40704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="485" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>39</v>
       </c>
@@ -40783,7 +40787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="486" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>39</v>
       </c>
@@ -40866,7 +40870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="487" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>39</v>
       </c>
@@ -40949,7 +40953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="488" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>39</v>
       </c>
@@ -41032,7 +41036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="489" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>39</v>
       </c>
@@ -41115,7 +41119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>39</v>
       </c>
@@ -41198,7 +41202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="491" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>39</v>
       </c>
@@ -41281,7 +41285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="492" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>39</v>
       </c>
@@ -41364,7 +41368,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="493" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>39</v>
       </c>
@@ -41447,7 +41451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="494" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>39</v>
       </c>
@@ -41530,7 +41534,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="495" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>39</v>
       </c>
@@ -41613,7 +41617,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="496" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>39</v>
       </c>
@@ -41696,7 +41700,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="497" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>39</v>
       </c>
@@ -41779,7 +41783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="498" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>39</v>
       </c>
@@ -41862,7 +41866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="499" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>39</v>
       </c>
@@ -41945,7 +41949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="500" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>39</v>
       </c>
@@ -42028,7 +42032,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="501" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>39</v>
       </c>
@@ -42111,7 +42115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="502" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>39</v>
       </c>
@@ -42194,7 +42198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="503" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>39</v>
       </c>
@@ -42277,7 +42281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="504" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>39</v>
       </c>
@@ -42360,7 +42364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="505" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>39</v>
       </c>
@@ -42443,7 +42447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="506" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>39</v>
       </c>
@@ -42526,7 +42530,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="507" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>39</v>
       </c>
@@ -42609,7 +42613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="508" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>39</v>
       </c>
@@ -42692,7 +42696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="509" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>39</v>
       </c>
@@ -42775,7 +42779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="510" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>39</v>
       </c>
@@ -42858,7 +42862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="511" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>39</v>
       </c>
@@ -42941,7 +42945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="512" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>39</v>
       </c>
@@ -43024,7 +43028,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="513" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>39</v>
       </c>
@@ -43108,6 +43112,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AD513" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="polynomial"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
